--- a/python/Results/RST_lows_after_RST.xlsx
+++ b/python/Results/RST_lows_after_RST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatzv\Documents\Geography\RSTs\python\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F665A9-7E5C-4D95-8E53-2E839D8ED753}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60B3F81-BCB1-431F-B2EC-517AF310F4E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="157">
   <si>
     <t>Date</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Omit</t>
   </si>
 </sst>
 </file>
@@ -884,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136:XFD136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,237 +936,243 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="B2">
-        <v>30.75</v>
+        <v>35.25</v>
       </c>
       <c r="C2">
         <v>31.5</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>101268</v>
+        <v>101118</v>
       </c>
       <c r="F2">
-        <v>308</v>
+        <v>584</v>
       </c>
       <c r="G2">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="H2">
-        <v>416</v>
+        <v>916</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
       </c>
       <c r="J2">
-        <v>3074</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="B3">
+        <v>35.25</v>
+      </c>
+      <c r="C3">
         <v>31.5</v>
       </c>
-      <c r="C3">
-        <v>34.5</v>
-      </c>
       <c r="D3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>101835</v>
+        <v>102183</v>
       </c>
       <c r="F3">
-        <v>325</v>
+        <v>395</v>
       </c>
       <c r="G3">
-        <v>213</v>
+        <v>340</v>
       </c>
       <c r="H3">
-        <v>352</v>
+        <v>761</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>4689</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>32.25</v>
       </c>
       <c r="C4">
-        <v>35.25</v>
+        <v>33.75</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>100977</v>
+        <v>101678</v>
       </c>
       <c r="F4">
-        <v>480</v>
+        <v>787</v>
       </c>
       <c r="G4">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H4">
-        <v>412</v>
+        <v>752</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J4">
-        <v>8481</v>
+        <v>6978</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>33.75</v>
       </c>
       <c r="C5">
-        <v>34.5</v>
+        <v>30.75</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>100591</v>
+        <v>100446</v>
       </c>
       <c r="F5">
-        <v>666</v>
+        <v>1632</v>
       </c>
       <c r="G5">
-        <v>325</v>
+        <v>692</v>
       </c>
       <c r="H5">
-        <v>656</v>
+        <v>692</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J5">
-        <v>11029</v>
-      </c>
-      <c r="K5" t="s">
-        <v>155</v>
+        <v>5698</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>32.25</v>
+        <v>30.75</v>
       </c>
       <c r="C6">
-        <v>34.5</v>
+        <v>35.25</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>101021</v>
+        <v>101561</v>
       </c>
       <c r="F6">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="G6">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="H6">
-        <v>419</v>
+        <v>663</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
       </c>
       <c r="J6">
-        <v>2488</v>
+        <v>5488</v>
+      </c>
+      <c r="K6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>33.75</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>34.5</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>101165</v>
+        <v>100591</v>
       </c>
       <c r="F7">
-        <v>130</v>
+        <v>666</v>
       </c>
       <c r="G7">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="H7">
-        <v>537</v>
+        <v>656</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J7">
-        <v>2991</v>
+        <v>11029</v>
+      </c>
+      <c r="K7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="B8">
+        <v>30.75</v>
+      </c>
+      <c r="C8">
         <v>32.25</v>
       </c>
-      <c r="C8">
-        <v>34.5</v>
-      </c>
       <c r="D8">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>101757</v>
+        <v>101745</v>
       </c>
       <c r="F8">
-        <v>695</v>
+        <v>461</v>
       </c>
       <c r="G8">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="H8">
-        <v>352</v>
+        <v>652</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
       </c>
       <c r="J8">
-        <v>3159</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="B9">
         <v>31.5</v>
@@ -1172,144 +1181,144 @@
         <v>34.5</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>101411</v>
+        <v>101807</v>
       </c>
       <c r="F9">
-        <v>645</v>
+        <v>361</v>
       </c>
       <c r="G9">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="H9">
-        <v>352</v>
+        <v>650</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
       </c>
       <c r="J9">
-        <v>4251</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="B10">
-        <v>32.25</v>
+        <v>35.25</v>
       </c>
       <c r="C10">
-        <v>33.75</v>
+        <v>30.75</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>100375</v>
+        <v>101717</v>
       </c>
       <c r="F10">
-        <v>1330</v>
+        <v>581</v>
       </c>
       <c r="G10">
-        <v>422</v>
+        <v>204</v>
       </c>
       <c r="H10">
-        <v>606</v>
+        <v>647</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
       </c>
       <c r="J10">
-        <v>9469</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="B11">
         <v>32.25</v>
       </c>
       <c r="C11">
-        <v>34.5</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>101742</v>
+        <v>101599</v>
       </c>
       <c r="F11">
-        <v>578</v>
+        <v>669</v>
       </c>
       <c r="G11">
-        <v>282</v>
+        <v>493</v>
       </c>
       <c r="H11">
-        <v>415</v>
+        <v>647</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
       </c>
       <c r="J11">
-        <v>4663</v>
+        <v>6033</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>31.5</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>34.5</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>101696</v>
+        <v>101342</v>
       </c>
       <c r="F12">
-        <v>631</v>
+        <v>419</v>
       </c>
       <c r="G12">
-        <v>213</v>
+        <v>326</v>
       </c>
       <c r="H12">
-        <v>352</v>
+        <v>612</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
       </c>
       <c r="J12">
-        <v>6880</v>
+        <v>7084</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B13">
-        <v>33</v>
+        <v>31.5</v>
       </c>
       <c r="C13">
         <v>34.5</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>101342</v>
+        <v>101806</v>
       </c>
       <c r="F13">
-        <v>419</v>
+        <v>559</v>
       </c>
       <c r="G13">
-        <v>326</v>
+        <v>213</v>
       </c>
       <c r="H13">
         <v>612</v>
@@ -1318,533 +1327,530 @@
         <v>11</v>
       </c>
       <c r="J13">
-        <v>7084</v>
+        <v>5956</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B14">
-        <v>33</v>
+        <v>35.25</v>
       </c>
       <c r="C14">
-        <v>35.25</v>
+        <v>30.75</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>100159</v>
+        <v>101954</v>
       </c>
       <c r="F14">
-        <v>1313</v>
+        <v>374</v>
       </c>
       <c r="G14">
-        <v>489</v>
+        <v>340</v>
       </c>
       <c r="H14">
-        <v>489</v>
+        <v>612</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
       </c>
       <c r="J14">
-        <v>7655</v>
+        <v>6189</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>31.5</v>
+        <v>32.25</v>
       </c>
       <c r="C15">
-        <v>34.5</v>
+        <v>33.75</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>101071</v>
+        <v>100375</v>
       </c>
       <c r="F15">
-        <v>516</v>
+        <v>1330</v>
       </c>
       <c r="G15">
-        <v>284</v>
+        <v>422</v>
       </c>
       <c r="H15">
-        <v>419</v>
+        <v>606</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
       </c>
       <c r="J15">
-        <v>9084</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B16">
-        <v>31.5</v>
+        <v>30.75</v>
       </c>
       <c r="C16">
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E16">
-        <v>101319</v>
+        <v>101596</v>
       </c>
       <c r="F16">
-        <v>428</v>
+        <v>246</v>
       </c>
       <c r="G16">
-        <v>284</v>
+        <v>143</v>
       </c>
       <c r="H16">
-        <v>358</v>
+        <v>558</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J16">
-        <v>2330</v>
+        <v>5487</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="B17">
-        <v>33</v>
+        <v>32.25</v>
       </c>
       <c r="C17">
-        <v>34.5</v>
+        <v>35.25</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E17">
-        <v>101702</v>
+        <v>101398</v>
       </c>
       <c r="F17">
-        <v>965</v>
+        <v>312</v>
       </c>
       <c r="G17">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="H17">
-        <v>480</v>
+        <v>549</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
       </c>
       <c r="J17">
-        <v>5884</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="B18">
-        <v>33</v>
+        <v>30.75</v>
       </c>
       <c r="C18">
-        <v>37.5</v>
+        <v>32.25</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>101446</v>
+        <v>101570</v>
       </c>
       <c r="F18">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="G18">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="H18">
-        <v>439</v>
+        <v>549</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J18">
-        <v>7992</v>
+        <v>7937</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B19">
-        <v>32.25</v>
+        <v>31.5</v>
       </c>
       <c r="C19">
         <v>34.5</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <v>101154</v>
+        <v>101499</v>
       </c>
       <c r="F19">
-        <v>580</v>
+        <v>522</v>
       </c>
       <c r="G19">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="H19">
-        <v>433</v>
+        <v>544</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J19">
-        <v>2445</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="B20">
-        <v>30.75</v>
+        <v>31.5</v>
       </c>
       <c r="C20">
-        <v>35.25</v>
+        <v>34.5</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>101561</v>
+        <v>101145</v>
       </c>
       <c r="F20">
-        <v>523</v>
+        <v>678</v>
       </c>
       <c r="G20">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="H20">
-        <v>663</v>
+        <v>543</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
       </c>
       <c r="J20">
-        <v>5488</v>
-      </c>
-      <c r="K20" t="s">
-        <v>155</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="B21">
-        <v>31.5</v>
+        <v>35.25</v>
       </c>
       <c r="C21">
-        <v>34.5</v>
+        <v>35.25</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>100827</v>
+        <v>101342</v>
       </c>
       <c r="F21">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="G21">
-        <v>167</v>
+        <v>322</v>
       </c>
       <c r="H21">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="I21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J21">
-        <v>11027</v>
+        <v>8628</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22">
-        <v>31.5</v>
+        <v>30.75</v>
       </c>
       <c r="C22">
-        <v>34.5</v>
+        <v>35.25</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>100934</v>
+        <v>100989</v>
       </c>
       <c r="F22">
-        <v>663</v>
+        <v>494</v>
       </c>
       <c r="G22">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H22">
-        <v>432</v>
+        <v>541</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J22">
-        <v>3094</v>
+        <v>8432</v>
+      </c>
+      <c r="K22" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B23">
-        <v>30.75</v>
+        <v>31.5</v>
       </c>
       <c r="C23">
-        <v>35.25</v>
+        <v>34.5</v>
       </c>
       <c r="D23">
         <v>12</v>
       </c>
       <c r="E23">
-        <v>100989</v>
+        <v>101732</v>
       </c>
       <c r="F23">
-        <v>494</v>
+        <v>575</v>
       </c>
       <c r="G23">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="H23">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J23">
-        <v>8432</v>
-      </c>
-      <c r="K23" t="s">
-        <v>155</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>30.75</v>
+        <v>33</v>
       </c>
       <c r="C24">
-        <v>37.5</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>100773</v>
+        <v>101165</v>
       </c>
       <c r="F24">
-        <v>1063</v>
+        <v>130</v>
       </c>
       <c r="G24">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="H24">
-        <v>429</v>
+        <v>537</v>
       </c>
       <c r="I24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J24">
-        <v>9989</v>
-      </c>
-      <c r="K24" t="s">
-        <v>155</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B25">
-        <v>31.5</v>
+        <v>33.75</v>
       </c>
       <c r="C25">
-        <v>34.5</v>
+        <v>32.25</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>101230</v>
+        <v>101462</v>
       </c>
       <c r="F25">
-        <v>915</v>
+        <v>737</v>
       </c>
       <c r="G25">
-        <v>213</v>
+        <v>333</v>
       </c>
       <c r="H25">
-        <v>352</v>
+        <v>537</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
       </c>
       <c r="J25">
-        <v>2978</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B26">
-        <v>32.25</v>
+        <v>35.25</v>
       </c>
       <c r="C26">
-        <v>34.5</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>101326</v>
+        <v>100876</v>
       </c>
       <c r="F26">
-        <v>459</v>
+        <v>633</v>
       </c>
       <c r="G26">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="H26">
-        <v>432</v>
+        <v>533</v>
       </c>
       <c r="I26" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J26">
-        <v>3987</v>
+        <v>8157</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B27">
-        <v>35.25</v>
+        <v>31.5</v>
       </c>
       <c r="C27">
-        <v>35.25</v>
+        <v>34.5</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>100628</v>
+        <v>100977</v>
       </c>
       <c r="F27">
-        <v>906</v>
+        <v>634</v>
       </c>
       <c r="G27">
-        <v>322</v>
+        <v>219</v>
       </c>
       <c r="H27">
-        <v>416</v>
+        <v>500</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
       </c>
       <c r="J27">
-        <v>8887</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="B28">
+        <v>35.25</v>
+      </c>
+      <c r="C28">
         <v>31.5</v>
       </c>
-      <c r="C28">
-        <v>34.5</v>
-      </c>
       <c r="D28">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E28">
-        <v>101732</v>
+        <v>101002</v>
       </c>
       <c r="F28">
-        <v>575</v>
+        <v>728</v>
       </c>
       <c r="G28">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="H28">
-        <v>539</v>
+        <v>500</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J28">
-        <v>3672</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="B29">
         <v>32.25</v>
       </c>
       <c r="C29">
-        <v>33.75</v>
+        <v>34.5</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>101329</v>
+        <v>100769</v>
       </c>
       <c r="F29">
-        <v>1005</v>
+        <v>590</v>
       </c>
       <c r="G29">
         <v>352</v>
       </c>
       <c r="H29">
-        <v>352</v>
+        <v>500</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J29">
-        <v>3893</v>
+        <v>10275</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="B30">
         <v>32.25</v>
@@ -1853,286 +1859,286 @@
         <v>34.5</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>101337</v>
+        <v>101247</v>
       </c>
       <c r="F30">
-        <v>618</v>
+        <v>334</v>
       </c>
       <c r="G30">
-        <v>352</v>
+        <v>282</v>
       </c>
       <c r="H30">
-        <v>415</v>
+        <v>500</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J30">
-        <v>4906</v>
+        <v>10116</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="B31">
-        <v>35.25</v>
+        <v>32.25</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>100876</v>
+        <v>100638</v>
       </c>
       <c r="F31">
-        <v>633</v>
+        <v>966</v>
       </c>
       <c r="G31">
-        <v>204</v>
+        <v>500</v>
       </c>
       <c r="H31">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J31">
-        <v>8157</v>
+        <v>7065</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B32">
-        <v>32.25</v>
+        <v>31.5</v>
       </c>
       <c r="C32">
-        <v>34.5</v>
+        <v>33.75</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>101305</v>
+        <v>100710</v>
       </c>
       <c r="F32">
-        <v>177</v>
+        <v>643</v>
       </c>
       <c r="G32">
-        <v>282</v>
+        <v>355</v>
       </c>
       <c r="H32">
-        <v>433</v>
+        <v>497</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J32">
-        <v>2641</v>
+        <v>11480</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>31.5</v>
+        <v>33</v>
       </c>
       <c r="C33">
-        <v>34.5</v>
+        <v>35.25</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>101325</v>
+        <v>100159</v>
       </c>
       <c r="F33">
-        <v>559</v>
+        <v>1313</v>
       </c>
       <c r="G33">
-        <v>142</v>
+        <v>489</v>
       </c>
       <c r="H33">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="I33" t="s">
         <v>11</v>
       </c>
       <c r="J33">
-        <v>3598</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B34">
+        <v>30.75</v>
+      </c>
+      <c r="C34">
         <v>33</v>
-      </c>
-      <c r="C34">
-        <v>34.5</v>
       </c>
       <c r="D34">
         <v>8</v>
       </c>
       <c r="E34">
-        <v>101489</v>
+        <v>101460</v>
       </c>
       <c r="F34">
-        <v>828</v>
+        <v>355</v>
       </c>
       <c r="G34">
-        <v>349</v>
+        <v>143</v>
       </c>
       <c r="H34">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="I34" t="s">
         <v>16</v>
       </c>
       <c r="J34">
-        <v>4492</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>33.75</v>
+        <v>33</v>
       </c>
       <c r="C35">
-        <v>33.75</v>
+        <v>34.5</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>101168</v>
+        <v>101489</v>
       </c>
       <c r="F35">
-        <v>647</v>
+        <v>828</v>
       </c>
       <c r="G35">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="H35">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="I35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J35">
-        <v>7100</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="B36">
-        <v>31.5</v>
+        <v>32.25</v>
       </c>
       <c r="C36">
-        <v>33.75</v>
+        <v>34.5</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E36">
-        <v>100710</v>
+        <v>101547</v>
       </c>
       <c r="F36">
-        <v>643</v>
+        <v>400</v>
       </c>
       <c r="G36">
-        <v>355</v>
+        <v>282</v>
       </c>
       <c r="H36">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="I36" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J36">
-        <v>11480</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="B37">
+        <v>30.75</v>
+      </c>
+      <c r="C37">
         <v>35.25</v>
       </c>
-      <c r="C37">
-        <v>34.5</v>
-      </c>
       <c r="D37">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E37">
-        <v>101344</v>
+        <v>100531</v>
       </c>
       <c r="F37">
-        <v>798</v>
+        <v>875</v>
       </c>
       <c r="G37">
-        <v>476</v>
+        <v>286</v>
       </c>
       <c r="H37">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J37">
-        <v>3681</v>
+        <v>11077</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B38">
         <v>33</v>
       </c>
       <c r="C38">
-        <v>33.75</v>
+        <v>34.5</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>101734</v>
+        <v>101702</v>
       </c>
       <c r="F38">
-        <v>844</v>
+        <v>965</v>
       </c>
       <c r="G38">
         <v>326</v>
       </c>
       <c r="H38">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="I38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J38">
-        <v>6821</v>
+        <v>5884</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B39">
         <v>34.5</v>
@@ -2141,577 +2147,583 @@
         <v>35.25</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E39">
-        <v>101437</v>
+        <v>101614</v>
       </c>
       <c r="F39">
-        <v>828</v>
+        <v>477</v>
       </c>
       <c r="G39">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="H39">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
       </c>
       <c r="J39">
-        <v>7117</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="B40">
-        <v>32.25</v>
+        <v>35.25</v>
       </c>
       <c r="C40">
-        <v>34.5</v>
+        <v>35.25</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>101095</v>
+        <v>100986</v>
       </c>
       <c r="F40">
-        <v>667</v>
+        <v>397</v>
       </c>
       <c r="G40">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="H40">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="I40" t="s">
         <v>11</v>
       </c>
       <c r="J40">
-        <v>8001</v>
+        <v>7865</v>
+      </c>
+      <c r="K40" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>30.75</v>
+        <v>35.25</v>
       </c>
       <c r="C41">
-        <v>37.5</v>
+        <v>34.5</v>
       </c>
       <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>101344</v>
+      </c>
+      <c r="F41">
+        <v>798</v>
+      </c>
+      <c r="G41">
+        <v>476</v>
+      </c>
+      <c r="H41">
+        <v>476</v>
+      </c>
+      <c r="I41" t="s">
         <v>13</v>
       </c>
-      <c r="E41">
-        <v>101239</v>
-      </c>
-      <c r="F41">
-        <v>369</v>
-      </c>
-      <c r="G41">
-        <v>220</v>
-      </c>
-      <c r="H41">
-        <v>430</v>
-      </c>
-      <c r="I41" t="s">
-        <v>11</v>
-      </c>
       <c r="J41">
-        <v>9276</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B42">
+        <v>35.25</v>
+      </c>
+      <c r="C42">
         <v>31.5</v>
       </c>
-      <c r="C42">
-        <v>34.5</v>
-      </c>
       <c r="D42">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E42">
-        <v>101054</v>
+        <v>101288</v>
       </c>
       <c r="F42">
-        <v>452</v>
+        <v>664</v>
       </c>
       <c r="G42">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="H42">
-        <v>355</v>
+        <v>476</v>
       </c>
       <c r="I42" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J42">
-        <v>9580</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="B43">
         <v>31.5</v>
       </c>
       <c r="C43">
-        <v>34.5</v>
+        <v>33.75</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <v>100871</v>
+        <v>101534</v>
       </c>
       <c r="F43">
-        <v>504</v>
+        <v>577</v>
       </c>
       <c r="G43">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="H43">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="I43" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J43">
-        <v>11814</v>
+        <v>6891</v>
+      </c>
+      <c r="K43" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B44">
         <v>33</v>
       </c>
       <c r="C44">
-        <v>35.25</v>
+        <v>37.5</v>
       </c>
       <c r="D44">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E44">
-        <v>101413</v>
+        <v>101446</v>
       </c>
       <c r="F44">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="G44">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H44">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="I44" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J44">
-        <v>2746</v>
+        <v>7992</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B45">
-        <v>31.5</v>
+        <v>32.25</v>
       </c>
       <c r="C45">
         <v>34.5</v>
       </c>
       <c r="D45">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E45">
-        <v>101812</v>
+        <v>101095</v>
       </c>
       <c r="F45">
-        <v>764</v>
+        <v>667</v>
       </c>
       <c r="G45">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H45">
-        <v>352</v>
+        <v>439</v>
       </c>
       <c r="I45" t="s">
         <v>11</v>
       </c>
       <c r="J45">
-        <v>3162</v>
+        <v>8001</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="B46">
-        <v>30.75</v>
+        <v>32.25</v>
       </c>
       <c r="C46">
-        <v>37.5</v>
+        <v>34.5</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E46">
-        <v>101596</v>
+        <v>101064</v>
       </c>
       <c r="F46">
-        <v>246</v>
+        <v>345</v>
       </c>
       <c r="G46">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="H46">
-        <v>558</v>
+        <v>438</v>
       </c>
       <c r="I46" t="s">
         <v>13</v>
       </c>
       <c r="J46">
-        <v>5487</v>
-      </c>
-      <c r="K46" t="s">
-        <v>155</v>
+        <v>5525</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B47">
+        <v>35.25</v>
+      </c>
+      <c r="C47">
         <v>31.5</v>
       </c>
-      <c r="C47">
-        <v>34.5</v>
-      </c>
       <c r="D47">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>101806</v>
+        <v>101496</v>
       </c>
       <c r="F47">
-        <v>559</v>
+        <v>967</v>
       </c>
       <c r="G47">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="H47">
-        <v>612</v>
+        <v>436</v>
       </c>
       <c r="I47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J47">
-        <v>5956</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B48">
-        <v>35.25</v>
+        <v>31.5</v>
       </c>
       <c r="C48">
-        <v>30.75</v>
+        <v>34.5</v>
       </c>
       <c r="D48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>101954</v>
+        <v>101325</v>
       </c>
       <c r="F48">
-        <v>374</v>
+        <v>559</v>
       </c>
       <c r="G48">
-        <v>340</v>
+        <v>142</v>
       </c>
       <c r="H48">
-        <v>612</v>
+        <v>435</v>
       </c>
       <c r="I48" t="s">
         <v>11</v>
       </c>
       <c r="J48">
-        <v>6189</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B49">
-        <v>30.75</v>
+        <v>32.25</v>
       </c>
       <c r="C49">
-        <v>33</v>
+        <v>34.5</v>
       </c>
       <c r="D49">
+        <v>28</v>
+      </c>
+      <c r="E49">
+        <v>101154</v>
+      </c>
+      <c r="F49">
+        <v>580</v>
+      </c>
+      <c r="G49">
+        <v>282</v>
+      </c>
+      <c r="H49">
+        <v>433</v>
+      </c>
+      <c r="I49" t="s">
         <v>13</v>
       </c>
-      <c r="E49">
-        <v>101483</v>
-      </c>
-      <c r="F49">
-        <v>926</v>
-      </c>
-      <c r="G49">
-        <v>215</v>
-      </c>
-      <c r="H49">
-        <v>352</v>
-      </c>
-      <c r="I49" t="s">
-        <v>11</v>
-      </c>
       <c r="J49">
-        <v>8370</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B50">
-        <v>35.25</v>
+        <v>32.25</v>
       </c>
       <c r="C50">
-        <v>35.25</v>
+        <v>34.5</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E50">
-        <v>101098</v>
+        <v>101305</v>
       </c>
       <c r="F50">
-        <v>675</v>
+        <v>177</v>
       </c>
       <c r="G50">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="H50">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="I50" t="s">
         <v>13</v>
       </c>
       <c r="J50">
-        <v>9744</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B51">
-        <v>35.25</v>
+        <v>33.75</v>
       </c>
       <c r="C51">
-        <v>36.75</v>
+        <v>33.75</v>
       </c>
       <c r="D51">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E51">
-        <v>101383</v>
+        <v>101168</v>
       </c>
       <c r="F51">
-        <v>511</v>
+        <v>647</v>
       </c>
       <c r="G51">
-        <v>204</v>
+        <v>433</v>
       </c>
       <c r="H51">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J51">
-        <v>10013</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B52">
-        <v>31.5</v>
+        <v>32.25</v>
       </c>
       <c r="C52">
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>100977</v>
+        <v>101594</v>
       </c>
       <c r="F52">
-        <v>634</v>
+        <v>655</v>
       </c>
       <c r="G52">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="H52">
-        <v>500</v>
+        <v>433</v>
       </c>
       <c r="I52" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J52">
-        <v>3873</v>
+        <v>6521</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B53">
-        <v>33.75</v>
+        <v>30.75</v>
       </c>
       <c r="C53">
         <v>34.5</v>
       </c>
       <c r="D53">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E53">
-        <v>101504</v>
+        <v>101312</v>
       </c>
       <c r="F53">
-        <v>179</v>
+        <v>423</v>
       </c>
       <c r="G53">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="H53">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="I53" t="s">
         <v>11</v>
       </c>
       <c r="J53">
-        <v>5091</v>
+        <v>7689</v>
+      </c>
+      <c r="K53" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="B54">
-        <v>33</v>
+        <v>31.5</v>
       </c>
       <c r="C54">
-        <v>35.25</v>
+        <v>34.5</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E54">
-        <v>101505</v>
+        <v>101332</v>
       </c>
       <c r="F54">
-        <v>562</v>
+        <v>220</v>
       </c>
       <c r="G54">
-        <v>326</v>
+        <v>213</v>
       </c>
       <c r="H54">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="I54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J54">
-        <v>5560</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="B55">
-        <v>33</v>
+        <v>31.5</v>
       </c>
       <c r="C55">
-        <v>34.5</v>
+        <v>33.75</v>
       </c>
       <c r="D55">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E55">
-        <v>101779</v>
+        <v>101271</v>
       </c>
       <c r="F55">
-        <v>205</v>
+        <v>818</v>
       </c>
       <c r="G55">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H55">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="I55" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J55">
-        <v>5786</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B56">
-        <v>33.75</v>
+        <v>31.5</v>
       </c>
       <c r="C56">
         <v>34.5</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>100888</v>
+        <v>100934</v>
       </c>
       <c r="F56">
-        <v>824</v>
+        <v>663</v>
       </c>
       <c r="G56">
-        <v>415</v>
+        <v>213</v>
       </c>
       <c r="H56">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="I56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J56">
-        <v>8391</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B57">
         <v>32.25</v>
@@ -2720,316 +2732,316 @@
         <v>34.5</v>
       </c>
       <c r="D57">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E57">
-        <v>101653</v>
+        <v>101326</v>
       </c>
       <c r="F57">
-        <v>382</v>
+        <v>459</v>
       </c>
       <c r="G57">
         <v>282</v>
       </c>
       <c r="H57">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="I57" t="s">
         <v>11</v>
       </c>
       <c r="J57">
-        <v>3335</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B58">
-        <v>31.5</v>
+        <v>35.25</v>
       </c>
       <c r="C58">
-        <v>34.5</v>
+        <v>35.25</v>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E58">
-        <v>102009</v>
+        <v>101319</v>
       </c>
       <c r="F58">
-        <v>435</v>
+        <v>746</v>
       </c>
       <c r="G58">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="H58">
-        <v>352</v>
+        <v>432</v>
       </c>
       <c r="I58" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J58">
-        <v>4008</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B59">
-        <v>33.75</v>
+        <v>33</v>
       </c>
       <c r="C59">
-        <v>32.25</v>
+        <v>35.25</v>
       </c>
       <c r="D59">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E59">
-        <v>101462</v>
+        <v>101583</v>
       </c>
       <c r="F59">
-        <v>737</v>
+        <v>289</v>
       </c>
       <c r="G59">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="H59">
-        <v>537</v>
+        <v>432</v>
       </c>
       <c r="I59" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J59">
-        <v>4639</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="B60">
         <v>31.5</v>
       </c>
       <c r="C60">
-        <v>35.25</v>
+        <v>34.5</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E60">
-        <v>102273</v>
+        <v>101490</v>
       </c>
       <c r="F60">
-        <v>357</v>
+        <v>630</v>
       </c>
       <c r="G60">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="H60">
-        <v>352</v>
+        <v>432</v>
       </c>
       <c r="I60" t="s">
         <v>11</v>
       </c>
       <c r="J60">
-        <v>5744</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B61">
-        <v>31.5</v>
+        <v>34.5</v>
       </c>
       <c r="C61">
-        <v>34.5</v>
+        <v>35.25</v>
       </c>
       <c r="D61">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E61">
-        <v>101192</v>
+        <v>101437</v>
       </c>
       <c r="F61">
-        <v>903</v>
+        <v>828</v>
       </c>
       <c r="G61">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="H61">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I61" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J61">
-        <v>3238</v>
-      </c>
-      <c r="K61" t="s">
-        <v>155</v>
+        <v>7117</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B62">
-        <v>31.5</v>
+        <v>30.75</v>
       </c>
       <c r="C62">
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
       <c r="D62">
         <v>13</v>
       </c>
       <c r="E62">
-        <v>101184</v>
+        <v>101239</v>
       </c>
       <c r="F62">
-        <v>1008</v>
+        <v>369</v>
       </c>
       <c r="G62">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H62">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="I62" t="s">
         <v>11</v>
       </c>
       <c r="J62">
-        <v>3274</v>
+        <v>9276</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B63">
-        <v>30.75</v>
+        <v>33.75</v>
       </c>
       <c r="C63">
-        <v>33</v>
+        <v>35.25</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>101460</v>
+        <v>101263</v>
       </c>
       <c r="F63">
-        <v>355</v>
+        <v>830</v>
       </c>
       <c r="G63">
-        <v>143</v>
+        <v>325</v>
       </c>
       <c r="H63">
-        <v>489</v>
+        <v>430</v>
       </c>
       <c r="I63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J63">
-        <v>3893</v>
+        <v>7214</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B64">
+        <v>31.5</v>
+      </c>
+      <c r="C64">
         <v>33.75</v>
       </c>
-      <c r="C64">
-        <v>30.75</v>
-      </c>
       <c r="D64">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E64">
-        <v>100446</v>
+        <v>101044</v>
       </c>
       <c r="F64">
-        <v>1632</v>
+        <v>625</v>
       </c>
       <c r="G64">
-        <v>692</v>
+        <v>355</v>
       </c>
       <c r="H64">
-        <v>692</v>
+        <v>430</v>
       </c>
       <c r="I64" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J64">
-        <v>5698</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B65">
-        <v>32.25</v>
+        <v>33</v>
       </c>
       <c r="C65">
-        <v>37.5</v>
+        <v>35.25</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E65">
-        <v>101594</v>
+        <v>101916</v>
       </c>
       <c r="F65">
-        <v>655</v>
+        <v>319</v>
       </c>
       <c r="G65">
-        <v>282</v>
+        <v>140</v>
       </c>
       <c r="H65">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I65" t="s">
         <v>13</v>
       </c>
       <c r="J65">
-        <v>6521</v>
+        <v>8945</v>
+      </c>
+      <c r="K65" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B66">
         <v>30.75</v>
       </c>
       <c r="C66">
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
       <c r="D66">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E66">
-        <v>101312</v>
+        <v>100773</v>
       </c>
       <c r="F66">
-        <v>423</v>
+        <v>1063</v>
       </c>
       <c r="G66">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="H66">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I66" t="s">
         <v>11</v>
       </c>
       <c r="J66">
-        <v>7689</v>
+        <v>9989</v>
       </c>
       <c r="K66" t="s">
         <v>155</v>
@@ -3037,7 +3049,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B67">
         <v>32.25</v>
@@ -3046,193 +3058,199 @@
         <v>34.5</v>
       </c>
       <c r="D67">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E67">
-        <v>101449</v>
+        <v>101095</v>
       </c>
       <c r="F67">
-        <v>318</v>
+        <v>568</v>
       </c>
       <c r="G67">
-        <v>250</v>
+        <v>327</v>
       </c>
       <c r="H67">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="I67" t="s">
         <v>11</v>
       </c>
       <c r="J67">
-        <v>2756</v>
+        <v>8991</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="B68">
-        <v>31.5</v>
+        <v>35.25</v>
       </c>
       <c r="C68">
-        <v>34.5</v>
+        <v>35.25</v>
       </c>
       <c r="D68">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E68">
-        <v>101349</v>
+        <v>100900</v>
       </c>
       <c r="F68">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="G68">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H68">
-        <v>352</v>
+        <v>428</v>
       </c>
       <c r="I68" t="s">
         <v>11</v>
       </c>
       <c r="J68">
-        <v>3365</v>
+        <v>8810</v>
+      </c>
+      <c r="K68" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>32.25</v>
+        <v>31.5</v>
       </c>
       <c r="C69">
         <v>34.5</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E69">
-        <v>101755</v>
+        <v>101192</v>
       </c>
       <c r="F69">
-        <v>352</v>
+        <v>903</v>
       </c>
       <c r="G69">
-        <v>211</v>
+        <v>284</v>
       </c>
       <c r="H69">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="I69" t="s">
         <v>16</v>
       </c>
       <c r="J69">
-        <v>5420</v>
+        <v>3238</v>
+      </c>
+      <c r="K69" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B70">
-        <v>30.75</v>
+        <v>31.5</v>
       </c>
       <c r="C70">
-        <v>30.75</v>
+        <v>34.5</v>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E70">
-        <v>101450</v>
+        <v>100827</v>
       </c>
       <c r="F70">
-        <v>226</v>
+        <v>462</v>
       </c>
       <c r="G70">
         <v>167</v>
       </c>
       <c r="H70">
-        <v>355</v>
+        <v>422</v>
       </c>
       <c r="I70" t="s">
         <v>11</v>
       </c>
       <c r="J70">
-        <v>5601</v>
+        <v>11027</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B71">
         <v>31.5</v>
       </c>
       <c r="C71">
-        <v>35.25</v>
+        <v>34.5</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E71">
-        <v>102135</v>
+        <v>101184</v>
       </c>
       <c r="F71">
-        <v>124</v>
+        <v>1008</v>
       </c>
       <c r="G71">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H71">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="I71" t="s">
         <v>11</v>
       </c>
       <c r="J71">
-        <v>6349</v>
-      </c>
-      <c r="K71" t="s">
-        <v>155</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B72">
-        <v>35.25</v>
+        <v>31.5</v>
       </c>
       <c r="C72">
-        <v>31.5</v>
+        <v>34.5</v>
       </c>
       <c r="D72">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E72">
-        <v>101288</v>
+        <v>101084</v>
       </c>
       <c r="F72">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="G72">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="H72">
-        <v>476</v>
+        <v>422</v>
       </c>
       <c r="I72" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J72">
-        <v>1297</v>
+        <v>4239</v>
+      </c>
+      <c r="K72" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B73">
         <v>32.25</v>
@@ -3241,225 +3259,225 @@
         <v>34.5</v>
       </c>
       <c r="D73">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E73">
-        <v>101218</v>
+        <v>101021</v>
       </c>
       <c r="F73">
-        <v>147</v>
+        <v>474</v>
       </c>
       <c r="G73">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H73">
         <v>419</v>
       </c>
       <c r="I73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J73">
-        <v>1735</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="B74">
-        <v>35.25</v>
+        <v>31.5</v>
       </c>
       <c r="C74">
-        <v>35.25</v>
+        <v>34.5</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E74">
-        <v>101319</v>
+        <v>101071</v>
       </c>
       <c r="F74">
-        <v>746</v>
+        <v>516</v>
       </c>
       <c r="G74">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="H74">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="I74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J74">
-        <v>3374</v>
+        <v>9084</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B75">
-        <v>31.5</v>
+        <v>33</v>
       </c>
       <c r="C75">
-        <v>34.5</v>
+        <v>33.75</v>
       </c>
       <c r="D75">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>101734</v>
+      </c>
+      <c r="F75">
+        <v>844</v>
+      </c>
+      <c r="G75">
+        <v>326</v>
+      </c>
+      <c r="H75">
+        <v>419</v>
+      </c>
+      <c r="I75" t="s">
         <v>13</v>
       </c>
-      <c r="E75">
-        <v>100878</v>
-      </c>
-      <c r="F75">
-        <v>641</v>
-      </c>
-      <c r="G75">
-        <v>219</v>
-      </c>
-      <c r="H75">
-        <v>352</v>
-      </c>
-      <c r="I75" t="s">
-        <v>11</v>
-      </c>
       <c r="J75">
-        <v>1531</v>
+        <v>6821</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>34.5</v>
+        <v>32.25</v>
       </c>
       <c r="C76">
-        <v>35.25</v>
+        <v>34.5</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E76">
-        <v>101301</v>
+        <v>101218</v>
       </c>
       <c r="F76">
-        <v>699</v>
+        <v>147</v>
       </c>
       <c r="G76">
-        <v>324</v>
+        <v>211</v>
       </c>
       <c r="H76">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="I76" t="s">
         <v>13</v>
       </c>
       <c r="J76">
-        <v>3056</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B77">
-        <v>34.5</v>
+        <v>31.5</v>
       </c>
       <c r="C77">
-        <v>35.25</v>
+        <v>34.5</v>
       </c>
       <c r="D77">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E77">
-        <v>101614</v>
+        <v>101588</v>
       </c>
       <c r="F77">
-        <v>477</v>
+        <v>749</v>
       </c>
       <c r="G77">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="H77">
-        <v>480</v>
+        <v>419</v>
       </c>
       <c r="I77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J77">
-        <v>3860</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B78">
         <v>33</v>
       </c>
       <c r="C78">
-        <v>35.25</v>
+        <v>33.75</v>
       </c>
       <c r="D78">
         <v>7</v>
       </c>
       <c r="E78">
-        <v>102177</v>
+        <v>101813</v>
       </c>
       <c r="F78">
-        <v>220</v>
+        <v>543</v>
       </c>
       <c r="G78">
-        <v>140</v>
+        <v>419</v>
       </c>
       <c r="H78">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="I78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J78">
-        <v>4952</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="B79">
-        <v>31.5</v>
+        <v>32.25</v>
       </c>
       <c r="C79">
-        <v>33.75</v>
+        <v>34.5</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E79">
-        <v>100939</v>
+        <v>101276</v>
       </c>
       <c r="F79">
-        <v>632</v>
+        <v>436</v>
       </c>
       <c r="G79">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H79">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="I79" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J79">
-        <v>9133</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="B80">
-        <v>31.5</v>
+        <v>32.25</v>
       </c>
       <c r="C80">
         <v>34.5</v>
@@ -3468,158 +3486,155 @@
         <v>8</v>
       </c>
       <c r="E80">
-        <v>100784</v>
+        <v>101715</v>
       </c>
       <c r="F80">
-        <v>662</v>
+        <v>449</v>
       </c>
       <c r="G80">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="H80">
-        <v>355</v>
+        <v>419</v>
       </c>
       <c r="I80" t="s">
         <v>11</v>
       </c>
       <c r="J80">
-        <v>9997</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B81">
-        <v>31.5</v>
+        <v>32.25</v>
       </c>
       <c r="C81">
         <v>34.5</v>
       </c>
       <c r="D81">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E81">
-        <v>101499</v>
+        <v>101269</v>
       </c>
       <c r="F81">
-        <v>522</v>
+        <v>453</v>
       </c>
       <c r="G81">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="H81">
-        <v>544</v>
+        <v>419</v>
       </c>
       <c r="I81" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J81">
-        <v>3060</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B82">
+        <v>30.75</v>
+      </c>
+      <c r="C82">
         <v>31.5</v>
       </c>
-      <c r="C82">
-        <v>34.5</v>
-      </c>
       <c r="D82">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E82">
-        <v>101084</v>
+        <v>101268</v>
       </c>
       <c r="F82">
-        <v>675</v>
+        <v>308</v>
       </c>
       <c r="G82">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="H82">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="I82" t="s">
         <v>11</v>
       </c>
       <c r="J82">
-        <v>4239</v>
-      </c>
-      <c r="K82" t="s">
-        <v>155</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="B83">
-        <v>33.75</v>
+        <v>35.25</v>
       </c>
       <c r="C83">
         <v>35.25</v>
       </c>
       <c r="D83">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E83">
-        <v>101263</v>
+        <v>100628</v>
       </c>
       <c r="F83">
-        <v>830</v>
+        <v>906</v>
       </c>
       <c r="G83">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H83">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="I83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J83">
-        <v>7214</v>
+        <v>8887</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="B84">
-        <v>32.25</v>
+        <v>31.5</v>
       </c>
       <c r="C84">
         <v>34.5</v>
       </c>
       <c r="D84">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E84">
-        <v>101095</v>
+        <v>100871</v>
       </c>
       <c r="F84">
-        <v>568</v>
+        <v>504</v>
       </c>
       <c r="G84">
-        <v>327</v>
+        <v>142</v>
       </c>
       <c r="H84">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="I84" t="s">
         <v>11</v>
       </c>
       <c r="J84">
-        <v>8991</v>
+        <v>11814</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B85">
         <v>33</v>
@@ -3628,240 +3643,243 @@
         <v>35.25</v>
       </c>
       <c r="D85">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E85">
-        <v>101583</v>
+        <v>101413</v>
       </c>
       <c r="F85">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="G85">
         <v>217</v>
       </c>
       <c r="H85">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="I85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J85">
-        <v>1969</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B86">
-        <v>35.25</v>
+        <v>33</v>
       </c>
       <c r="C86">
-        <v>35.25</v>
+        <v>34.5</v>
       </c>
       <c r="D86">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E86">
-        <v>101547</v>
+        <v>101779</v>
       </c>
       <c r="F86">
-        <v>565</v>
+        <v>205</v>
       </c>
       <c r="G86">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="H86">
         <v>416</v>
       </c>
       <c r="I86" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J86">
-        <v>3688</v>
+        <v>5786</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B87">
         <v>31.5</v>
       </c>
       <c r="C87">
-        <v>33.75</v>
+        <v>35.25</v>
       </c>
       <c r="D87">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E87">
-        <v>101044</v>
+        <v>102135</v>
       </c>
       <c r="F87">
-        <v>625</v>
+        <v>124</v>
       </c>
       <c r="G87">
-        <v>355</v>
+        <v>213</v>
       </c>
       <c r="H87">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="I87" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J87">
-        <v>4194</v>
+        <v>6349</v>
+      </c>
+      <c r="K87" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>31.5</v>
+        <v>33</v>
       </c>
       <c r="C88">
-        <v>34.5</v>
+        <v>35.25</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E88">
-        <v>101210</v>
+        <v>102177</v>
       </c>
       <c r="F88">
-        <v>398</v>
+        <v>220</v>
       </c>
       <c r="G88">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H88">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="I88" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J88">
-        <v>7924</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>31.5</v>
+        <v>35.25</v>
       </c>
       <c r="C89">
-        <v>36.75</v>
+        <v>35.25</v>
       </c>
       <c r="D89">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E89">
-        <v>101223</v>
+        <v>101547</v>
       </c>
       <c r="F89">
-        <v>269</v>
+        <v>565</v>
       </c>
       <c r="G89">
-        <v>355</v>
+        <v>204</v>
       </c>
       <c r="H89">
-        <v>355</v>
+        <v>416</v>
       </c>
       <c r="I89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J89">
-        <v>8194</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B90">
-        <v>31.5</v>
+        <v>34.5</v>
       </c>
       <c r="C90">
-        <v>34.5</v>
+        <v>35.25</v>
       </c>
       <c r="D90">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E90">
-        <v>101490</v>
+        <v>101290</v>
       </c>
       <c r="F90">
-        <v>630</v>
+        <v>531</v>
       </c>
       <c r="G90">
-        <v>284</v>
+        <v>137</v>
       </c>
       <c r="H90">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="I90" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J90">
-        <v>3141</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B91">
-        <v>30.75</v>
+        <v>35.25</v>
       </c>
       <c r="C91">
-        <v>32.25</v>
+        <v>31.5</v>
       </c>
       <c r="D91">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E91">
-        <v>101745</v>
+        <v>101633</v>
       </c>
       <c r="F91">
-        <v>461</v>
+        <v>378</v>
       </c>
       <c r="G91">
         <v>215</v>
       </c>
       <c r="H91">
-        <v>652</v>
+        <v>416</v>
       </c>
       <c r="I91" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J91">
-        <v>4466</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="B92">
-        <v>34.5</v>
+        <v>32.25</v>
       </c>
       <c r="C92">
         <v>34.5</v>
       </c>
       <c r="D92">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E92">
-        <v>101705</v>
+        <v>101742</v>
       </c>
       <c r="F92">
-        <v>414</v>
+        <v>578</v>
       </c>
       <c r="G92">
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="H92">
         <v>415</v>
@@ -3870,237 +3888,234 @@
         <v>11</v>
       </c>
       <c r="J92">
-        <v>5111</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="B93">
-        <v>31.5</v>
+        <v>32.25</v>
       </c>
       <c r="C93">
         <v>34.5</v>
       </c>
       <c r="D93">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E93">
-        <v>101486</v>
+        <v>101337</v>
       </c>
       <c r="F93">
-        <v>397</v>
+        <v>618</v>
       </c>
       <c r="G93">
-        <v>284</v>
+        <v>352</v>
       </c>
       <c r="H93">
-        <v>352</v>
+        <v>415</v>
       </c>
       <c r="I93" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J93">
-        <v>5424</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B94">
-        <v>32.25</v>
+        <v>33</v>
       </c>
       <c r="C94">
-        <v>34.5</v>
+        <v>35.25</v>
       </c>
       <c r="D94">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E94">
-        <v>101064</v>
+        <v>101505</v>
       </c>
       <c r="F94">
-        <v>345</v>
+        <v>562</v>
       </c>
       <c r="G94">
-        <v>218</v>
+        <v>326</v>
       </c>
       <c r="H94">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="I94" t="s">
         <v>13</v>
       </c>
       <c r="J94">
-        <v>5525</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="B95">
-        <v>35.25</v>
+        <v>33.75</v>
       </c>
       <c r="C95">
-        <v>31.5</v>
+        <v>34.5</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E95">
-        <v>101496</v>
+        <v>100888</v>
       </c>
       <c r="F95">
-        <v>967</v>
+        <v>824</v>
       </c>
       <c r="G95">
-        <v>322</v>
+        <v>415</v>
       </c>
       <c r="H95">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="I95" t="s">
         <v>13</v>
       </c>
       <c r="J95">
-        <v>4472</v>
+        <v>8391</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B96">
+        <v>32.25</v>
+      </c>
+      <c r="C96">
+        <v>34.5</v>
+      </c>
+      <c r="D96">
+        <v>14</v>
+      </c>
+      <c r="E96">
+        <v>101653</v>
+      </c>
+      <c r="F96">
+        <v>382</v>
+      </c>
+      <c r="G96">
+        <v>282</v>
+      </c>
+      <c r="H96">
+        <v>415</v>
+      </c>
+      <c r="I96" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>80</v>
+      </c>
+      <c r="B97">
+        <v>32.25</v>
+      </c>
+      <c r="C97">
+        <v>34.5</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>101755</v>
+      </c>
+      <c r="F97">
+        <v>352</v>
+      </c>
+      <c r="G97">
+        <v>211</v>
+      </c>
+      <c r="H97">
+        <v>415</v>
+      </c>
+      <c r="I97" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>87</v>
+      </c>
+      <c r="B98">
+        <v>34.5</v>
+      </c>
+      <c r="C98">
         <v>35.25</v>
       </c>
-      <c r="C96">
-        <v>31.5</v>
-      </c>
-      <c r="D96">
-        <v>9</v>
-      </c>
-      <c r="E96">
-        <v>101118</v>
-      </c>
-      <c r="F96">
-        <v>584</v>
-      </c>
-      <c r="G96">
-        <v>167</v>
-      </c>
-      <c r="H96">
-        <v>916</v>
-      </c>
-      <c r="I96" t="s">
-        <v>11</v>
-      </c>
-      <c r="J96">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>108</v>
-      </c>
-      <c r="B97">
-        <v>31.5</v>
-      </c>
-      <c r="C97">
-        <v>34.5</v>
-      </c>
-      <c r="D97">
-        <v>7</v>
-      </c>
-      <c r="E97">
-        <v>101588</v>
-      </c>
-      <c r="F97">
-        <v>749</v>
-      </c>
-      <c r="G97">
-        <v>142</v>
-      </c>
-      <c r="H97">
-        <v>419</v>
-      </c>
-      <c r="I97" t="s">
-        <v>11</v>
-      </c>
-      <c r="J97">
-        <v>3145</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>109</v>
-      </c>
-      <c r="B98">
-        <v>33</v>
-      </c>
-      <c r="C98">
-        <v>33.75</v>
-      </c>
       <c r="D98">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E98">
-        <v>101813</v>
+        <v>101301</v>
       </c>
       <c r="F98">
-        <v>543</v>
+        <v>699</v>
       </c>
       <c r="G98">
-        <v>419</v>
+        <v>324</v>
       </c>
       <c r="H98">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I98" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J98">
-        <v>6040</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>31.5</v>
+        <v>34.5</v>
       </c>
       <c r="C99">
-        <v>33.75</v>
+        <v>34.5</v>
       </c>
       <c r="D99">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E99">
-        <v>101534</v>
+        <v>101705</v>
       </c>
       <c r="F99">
-        <v>577</v>
+        <v>414</v>
       </c>
       <c r="G99">
-        <v>284</v>
+        <v>206</v>
       </c>
       <c r="H99">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="I99" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J99">
-        <v>6891</v>
-      </c>
-      <c r="K99" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -4132,303 +4147,300 @@
         <v>6437</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B101">
-        <v>31.5</v>
+        <v>30.75</v>
       </c>
       <c r="C101">
         <v>33</v>
       </c>
       <c r="D101">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E101">
-        <v>101529</v>
+        <v>101540</v>
       </c>
       <c r="F101">
-        <v>725</v>
+        <v>450</v>
       </c>
       <c r="G101">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="H101">
-        <v>352</v>
+        <v>415</v>
       </c>
       <c r="I101" t="s">
         <v>11</v>
       </c>
       <c r="J101">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8816</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B102">
-        <v>32.25</v>
+        <v>33.75</v>
       </c>
       <c r="C102">
         <v>34.5</v>
       </c>
       <c r="D102">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E102">
-        <v>101547</v>
+        <v>101412</v>
       </c>
       <c r="F102">
-        <v>400</v>
+        <v>681</v>
       </c>
       <c r="G102">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="H102">
-        <v>485</v>
+        <v>415</v>
       </c>
       <c r="I102" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J102">
-        <v>4489</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B103">
+        <v>34.5</v>
+      </c>
+      <c r="C103">
         <v>35.25</v>
       </c>
-      <c r="C103">
-        <v>30.75</v>
-      </c>
       <c r="D103">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E103">
-        <v>101717</v>
+        <v>101615</v>
       </c>
       <c r="F103">
-        <v>581</v>
+        <v>883</v>
       </c>
       <c r="G103">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H103">
-        <v>647</v>
+        <v>415</v>
       </c>
       <c r="I103" t="s">
         <v>11</v>
       </c>
       <c r="J103">
-        <v>4540</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="B104">
         <v>31.5</v>
       </c>
       <c r="C104">
+        <v>34.5</v>
+      </c>
+      <c r="D104">
+        <v>13</v>
+      </c>
+      <c r="E104">
+        <v>101633</v>
+      </c>
+      <c r="F104">
+        <v>653</v>
+      </c>
+      <c r="G104">
+        <v>142</v>
+      </c>
+      <c r="H104">
+        <v>415</v>
+      </c>
+      <c r="I104" t="s">
+        <v>11</v>
+      </c>
+      <c r="J104">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105">
         <v>33</v>
       </c>
-      <c r="D104">
-        <v>9</v>
-      </c>
-      <c r="E104">
-        <v>101142</v>
-      </c>
-      <c r="F104">
-        <v>746</v>
-      </c>
-      <c r="G104">
-        <v>355</v>
-      </c>
-      <c r="H104">
-        <v>355</v>
-      </c>
-      <c r="I104" t="s">
-        <v>11</v>
-      </c>
-      <c r="J104">
-        <v>4969</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>116</v>
-      </c>
-      <c r="B105">
+      <c r="C105">
+        <v>35.25</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>100977</v>
+      </c>
+      <c r="F105">
+        <v>480</v>
+      </c>
+      <c r="G105">
+        <v>279</v>
+      </c>
+      <c r="H105">
+        <v>412</v>
+      </c>
+      <c r="I105" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105">
+        <v>8481</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106">
+        <v>31.5</v>
+      </c>
+      <c r="C106">
+        <v>34.5</v>
+      </c>
+      <c r="D106">
+        <v>20</v>
+      </c>
+      <c r="E106">
+        <v>101210</v>
+      </c>
+      <c r="F106">
+        <v>398</v>
+      </c>
+      <c r="G106">
+        <v>142</v>
+      </c>
+      <c r="H106">
+        <v>412</v>
+      </c>
+      <c r="I106" t="s">
+        <v>11</v>
+      </c>
+      <c r="J106">
+        <v>7924</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>122</v>
+      </c>
+      <c r="B107">
+        <v>32.25</v>
+      </c>
+      <c r="C107">
+        <v>34.5</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>101564</v>
+      </c>
+      <c r="F107">
+        <v>515</v>
+      </c>
+      <c r="G107">
+        <v>282</v>
+      </c>
+      <c r="H107">
+        <v>412</v>
+      </c>
+      <c r="I107" t="s">
+        <v>11</v>
+      </c>
+      <c r="J107">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>61</v>
+      </c>
+      <c r="B108">
+        <v>35.25</v>
+      </c>
+      <c r="C108">
+        <v>35.25</v>
+      </c>
+      <c r="D108">
+        <v>7</v>
+      </c>
+      <c r="E108">
+        <v>101098</v>
+      </c>
+      <c r="F108">
+        <v>675</v>
+      </c>
+      <c r="G108">
+        <v>322</v>
+      </c>
+      <c r="H108">
+        <v>408</v>
+      </c>
+      <c r="I108" t="s">
+        <v>13</v>
+      </c>
+      <c r="J108">
+        <v>9744</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109">
+        <v>35.25</v>
+      </c>
+      <c r="C109">
         <v>30.75</v>
       </c>
-      <c r="C105">
-        <v>33</v>
-      </c>
-      <c r="D105">
-        <v>9</v>
-      </c>
-      <c r="E105">
-        <v>101540</v>
-      </c>
-      <c r="F105">
-        <v>450</v>
-      </c>
-      <c r="G105">
-        <v>143</v>
-      </c>
-      <c r="H105">
-        <v>415</v>
-      </c>
-      <c r="I105" t="s">
-        <v>11</v>
-      </c>
-      <c r="J105">
-        <v>8816</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>117</v>
-      </c>
-      <c r="B106">
+      <c r="D109">
+        <v>12</v>
+      </c>
+      <c r="E109">
+        <v>101153</v>
+      </c>
+      <c r="F109">
+        <v>383</v>
+      </c>
+      <c r="G109">
+        <v>272</v>
+      </c>
+      <c r="H109">
+        <v>408</v>
+      </c>
+      <c r="I109" t="s">
+        <v>11</v>
+      </c>
+      <c r="J109">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110">
         <v>32.25</v>
-      </c>
-      <c r="C106">
-        <v>34.5</v>
-      </c>
-      <c r="D106">
-        <v>10</v>
-      </c>
-      <c r="E106">
-        <v>101042</v>
-      </c>
-      <c r="F106">
-        <v>183</v>
-      </c>
-      <c r="G106">
-        <v>211</v>
-      </c>
-      <c r="H106">
-        <v>352</v>
-      </c>
-      <c r="I106" t="s">
-        <v>11</v>
-      </c>
-      <c r="J106">
-        <v>3415</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>118</v>
-      </c>
-      <c r="B107">
-        <v>35.25</v>
-      </c>
-      <c r="C107">
-        <v>30.75</v>
-      </c>
-      <c r="D107">
-        <v>12</v>
-      </c>
-      <c r="E107">
-        <v>101153</v>
-      </c>
-      <c r="F107">
-        <v>383</v>
-      </c>
-      <c r="G107">
-        <v>272</v>
-      </c>
-      <c r="H107">
-        <v>408</v>
-      </c>
-      <c r="I107" t="s">
-        <v>11</v>
-      </c>
-      <c r="J107">
-        <v>3822</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>119</v>
-      </c>
-      <c r="B108">
-        <v>32.25</v>
-      </c>
-      <c r="C108">
-        <v>33</v>
-      </c>
-      <c r="D108">
-        <v>24</v>
-      </c>
-      <c r="E108">
-        <v>101599</v>
-      </c>
-      <c r="F108">
-        <v>669</v>
-      </c>
-      <c r="G108">
-        <v>493</v>
-      </c>
-      <c r="H108">
-        <v>647</v>
-      </c>
-      <c r="I108" t="s">
-        <v>11</v>
-      </c>
-      <c r="J108">
-        <v>6033</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>120</v>
-      </c>
-      <c r="B109">
-        <v>33</v>
-      </c>
-      <c r="C109">
-        <v>35.25</v>
-      </c>
-      <c r="D109">
-        <v>17</v>
-      </c>
-      <c r="E109">
-        <v>101916</v>
-      </c>
-      <c r="F109">
-        <v>319</v>
-      </c>
-      <c r="G109">
-        <v>140</v>
-      </c>
-      <c r="H109">
-        <v>430</v>
-      </c>
-      <c r="I109" t="s">
-        <v>13</v>
-      </c>
-      <c r="J109">
-        <v>8945</v>
-      </c>
-      <c r="K109" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>121</v>
-      </c>
-      <c r="B110">
-        <v>31.5</v>
       </c>
       <c r="C110">
         <v>34.5</v>
@@ -4437,123 +4449,123 @@
         <v>8</v>
       </c>
       <c r="E110">
-        <v>101005</v>
+        <v>101796</v>
       </c>
       <c r="F110">
-        <v>733</v>
+        <v>478</v>
       </c>
       <c r="G110">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H110">
-        <v>352</v>
+        <v>408</v>
       </c>
       <c r="I110" t="s">
         <v>11</v>
       </c>
       <c r="J110">
-        <v>9686</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B111">
-        <v>32.25</v>
+        <v>33</v>
       </c>
       <c r="C111">
         <v>34.5</v>
       </c>
       <c r="D111">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E111">
-        <v>101564</v>
+        <v>101006</v>
       </c>
       <c r="F111">
-        <v>515</v>
+        <v>623</v>
       </c>
       <c r="G111">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="H111">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I111" t="s">
         <v>11</v>
       </c>
       <c r="J111">
-        <v>3754</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8476</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="B112">
-        <v>31.5</v>
+        <v>35.25</v>
       </c>
       <c r="C112">
-        <v>34.5</v>
+        <v>36.75</v>
       </c>
       <c r="D112">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E112">
-        <v>101438</v>
+        <v>101383</v>
       </c>
       <c r="F112">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="G112">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="H112">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="I112" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J112">
-        <v>4348</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10013</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B113">
-        <v>32.25</v>
+        <v>33.75</v>
       </c>
       <c r="C113">
         <v>34.5</v>
       </c>
       <c r="D113">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E113">
-        <v>101796</v>
+        <v>101504</v>
       </c>
       <c r="F113">
-        <v>478</v>
+        <v>179</v>
       </c>
       <c r="G113">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="H113">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I113" t="s">
         <v>11</v>
       </c>
       <c r="J113">
-        <v>4688</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5091</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B114">
         <v>35.25</v>
@@ -4562,289 +4574,286 @@
         <v>35.25</v>
       </c>
       <c r="D114">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E114">
-        <v>100986</v>
+        <v>100398</v>
       </c>
       <c r="F114">
-        <v>397</v>
+        <v>1018</v>
       </c>
       <c r="G114">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="H114">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="I114" t="s">
         <v>11</v>
       </c>
       <c r="J114">
-        <v>7865</v>
-      </c>
-      <c r="K114" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="B115">
-        <v>30.75</v>
+        <v>31.5</v>
       </c>
       <c r="C115">
-        <v>35.25</v>
+        <v>34.5</v>
       </c>
       <c r="D115">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E115">
-        <v>100531</v>
+        <v>101319</v>
       </c>
       <c r="F115">
-        <v>875</v>
+        <v>428</v>
       </c>
       <c r="G115">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H115">
-        <v>485</v>
+        <v>358</v>
       </c>
       <c r="I115" t="s">
         <v>16</v>
       </c>
       <c r="J115">
-        <v>11077</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="B116">
-        <v>35.25</v>
+        <v>31.5</v>
       </c>
       <c r="C116">
-        <v>35.25</v>
+        <v>34.5</v>
       </c>
       <c r="D116">
+        <v>7</v>
+      </c>
+      <c r="E116">
+        <v>101054</v>
+      </c>
+      <c r="F116">
+        <v>452</v>
+      </c>
+      <c r="G116">
+        <v>284</v>
+      </c>
+      <c r="H116">
+        <v>355</v>
+      </c>
+      <c r="I116" t="s">
+        <v>11</v>
+      </c>
+      <c r="J116">
+        <v>9580</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>81</v>
+      </c>
+      <c r="B117">
+        <v>30.75</v>
+      </c>
+      <c r="C117">
+        <v>30.75</v>
+      </c>
+      <c r="D117">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>101450</v>
+      </c>
+      <c r="F117">
+        <v>226</v>
+      </c>
+      <c r="G117">
+        <v>167</v>
+      </c>
+      <c r="H117">
+        <v>355</v>
+      </c>
+      <c r="I117" t="s">
+        <v>11</v>
+      </c>
+      <c r="J117">
+        <v>5601</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>91</v>
+      </c>
+      <c r="B118">
+        <v>31.5</v>
+      </c>
+      <c r="C118">
+        <v>34.5</v>
+      </c>
+      <c r="D118">
         <v>8</v>
       </c>
-      <c r="E116">
-        <v>100398</v>
-      </c>
-      <c r="F116">
-        <v>1018</v>
-      </c>
-      <c r="G116">
-        <v>322</v>
-      </c>
-      <c r="H116">
-        <v>400</v>
-      </c>
-      <c r="I116" t="s">
-        <v>11</v>
-      </c>
-      <c r="J116">
-        <v>12940</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>128</v>
-      </c>
-      <c r="B117">
-        <v>35.25</v>
-      </c>
-      <c r="C117">
+      <c r="E118">
+        <v>100784</v>
+      </c>
+      <c r="F118">
+        <v>662</v>
+      </c>
+      <c r="G118">
+        <v>219</v>
+      </c>
+      <c r="H118">
+        <v>355</v>
+      </c>
+      <c r="I118" t="s">
+        <v>11</v>
+      </c>
+      <c r="J118">
+        <v>9997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>100</v>
+      </c>
+      <c r="B119">
         <v>31.5</v>
       </c>
-      <c r="D117">
-        <v>21</v>
-      </c>
-      <c r="E117">
-        <v>101002</v>
-      </c>
-      <c r="F117">
-        <v>728</v>
-      </c>
-      <c r="G117">
-        <v>250</v>
-      </c>
-      <c r="H117">
-        <v>500</v>
-      </c>
-      <c r="I117" t="s">
-        <v>13</v>
-      </c>
-      <c r="J117">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>129</v>
-      </c>
-      <c r="B118">
-        <v>30.75</v>
-      </c>
-      <c r="C118">
-        <v>34.5</v>
-      </c>
-      <c r="D118">
-        <v>16</v>
-      </c>
-      <c r="E118">
-        <v>101107</v>
-      </c>
-      <c r="F118">
-        <v>859</v>
-      </c>
-      <c r="G118">
-        <v>143</v>
-      </c>
-      <c r="H118">
-        <v>352</v>
-      </c>
-      <c r="I118" t="s">
-        <v>11</v>
-      </c>
-      <c r="J118">
-        <v>2397</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>130</v>
-      </c>
-      <c r="B119">
-        <v>34.5</v>
-      </c>
       <c r="C119">
-        <v>35.25</v>
+        <v>36.75</v>
       </c>
       <c r="D119">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E119">
-        <v>101290</v>
+        <v>101223</v>
       </c>
       <c r="F119">
-        <v>531</v>
+        <v>269</v>
       </c>
       <c r="G119">
-        <v>137</v>
+        <v>355</v>
       </c>
       <c r="H119">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="I119" t="s">
         <v>13</v>
       </c>
       <c r="J119">
-        <v>6423</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8194</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B120">
-        <v>32.25</v>
+        <v>31.5</v>
       </c>
       <c r="C120">
-        <v>33.75</v>
+        <v>33</v>
       </c>
       <c r="D120">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E120">
-        <v>101678</v>
+        <v>101142</v>
       </c>
       <c r="F120">
-        <v>787</v>
+        <v>746</v>
       </c>
       <c r="G120">
-        <v>282</v>
+        <v>355</v>
       </c>
       <c r="H120">
-        <v>752</v>
+        <v>355</v>
       </c>
       <c r="I120" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J120">
-        <v>6978</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4969</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B121">
-        <v>33</v>
+        <v>31.5</v>
       </c>
       <c r="C121">
         <v>34.5</v>
       </c>
       <c r="D121">
+        <v>7</v>
+      </c>
+      <c r="E121">
+        <v>101438</v>
+      </c>
+      <c r="F121">
+        <v>492</v>
+      </c>
+      <c r="G121">
+        <v>219</v>
+      </c>
+      <c r="H121">
+        <v>355</v>
+      </c>
+      <c r="I121" t="s">
+        <v>11</v>
+      </c>
+      <c r="J121">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122">
+        <v>31.5</v>
+      </c>
+      <c r="C122">
+        <v>34.5</v>
+      </c>
+      <c r="D122">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>101835</v>
+      </c>
+      <c r="F122">
+        <v>325</v>
+      </c>
+      <c r="G122">
+        <v>213</v>
+      </c>
+      <c r="H122">
+        <v>352</v>
+      </c>
+      <c r="I122" t="s">
         <v>13</v>
       </c>
-      <c r="E121">
-        <v>101006</v>
-      </c>
-      <c r="F121">
-        <v>623</v>
-      </c>
-      <c r="G121">
-        <v>349</v>
-      </c>
-      <c r="H121">
-        <v>408</v>
-      </c>
-      <c r="I121" t="s">
-        <v>11</v>
-      </c>
-      <c r="J121">
-        <v>8476</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>133</v>
-      </c>
-      <c r="B122">
-        <v>32.25</v>
-      </c>
-      <c r="C122">
-        <v>34.5</v>
-      </c>
-      <c r="D122">
-        <v>22</v>
-      </c>
-      <c r="E122">
-        <v>100769</v>
-      </c>
-      <c r="F122">
-        <v>590</v>
-      </c>
-      <c r="G122">
-        <v>352</v>
-      </c>
-      <c r="H122">
-        <v>500</v>
-      </c>
-      <c r="I122" t="s">
-        <v>11</v>
-      </c>
       <c r="J122">
-        <v>10275</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4689</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="B123">
         <v>32.25</v>
@@ -4853,62 +4862,62 @@
         <v>34.5</v>
       </c>
       <c r="D123">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E123">
-        <v>101276</v>
+        <v>101757</v>
       </c>
       <c r="F123">
-        <v>436</v>
+        <v>695</v>
       </c>
       <c r="G123">
         <v>282</v>
       </c>
       <c r="H123">
-        <v>419</v>
+        <v>352</v>
       </c>
       <c r="I123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J123">
-        <v>2273</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="B124">
-        <v>33.75</v>
+        <v>31.5</v>
       </c>
       <c r="C124">
         <v>34.5</v>
       </c>
       <c r="D124">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E124">
-        <v>101412</v>
+        <v>101411</v>
       </c>
       <c r="F124">
-        <v>681</v>
+        <v>645</v>
       </c>
       <c r="G124">
-        <v>325</v>
+        <v>219</v>
       </c>
       <c r="H124">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="I124" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J124">
-        <v>2558</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="B125">
         <v>31.5</v>
@@ -4917,13 +4926,13 @@
         <v>34.5</v>
       </c>
       <c r="D125">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E125">
-        <v>101609</v>
+        <v>101696</v>
       </c>
       <c r="F125">
-        <v>602</v>
+        <v>631</v>
       </c>
       <c r="G125">
         <v>213</v>
@@ -4935,76 +4944,76 @@
         <v>11</v>
       </c>
       <c r="J125">
-        <v>3481</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6880</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="B126">
+        <v>31.5</v>
+      </c>
+      <c r="C126">
+        <v>34.5</v>
+      </c>
+      <c r="D126">
+        <v>10</v>
+      </c>
+      <c r="E126">
+        <v>101230</v>
+      </c>
+      <c r="F126">
+        <v>915</v>
+      </c>
+      <c r="G126">
+        <v>213</v>
+      </c>
+      <c r="H126">
+        <v>352</v>
+      </c>
+      <c r="I126" t="s">
+        <v>11</v>
+      </c>
+      <c r="J126">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>40</v>
+      </c>
+      <c r="B127">
         <v>32.25</v>
       </c>
-      <c r="C126">
-        <v>34.5</v>
-      </c>
-      <c r="D126">
-        <v>8</v>
-      </c>
-      <c r="E126">
-        <v>101715</v>
-      </c>
-      <c r="F126">
-        <v>449</v>
-      </c>
-      <c r="G126">
-        <v>282</v>
-      </c>
-      <c r="H126">
-        <v>419</v>
-      </c>
-      <c r="I126" t="s">
-        <v>11</v>
-      </c>
-      <c r="J126">
-        <v>3556</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>138</v>
-      </c>
-      <c r="B127">
-        <v>35.25</v>
-      </c>
       <c r="C127">
-        <v>31.5</v>
+        <v>33.75</v>
       </c>
       <c r="D127">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E127">
-        <v>101633</v>
+        <v>101329</v>
       </c>
       <c r="F127">
-        <v>378</v>
+        <v>1005</v>
       </c>
       <c r="G127">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="H127">
-        <v>416</v>
+        <v>352</v>
       </c>
       <c r="I127" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J127">
-        <v>3635</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="B128">
         <v>31.5</v>
@@ -5013,112 +5022,112 @@
         <v>34.5</v>
       </c>
       <c r="D128">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E128">
-        <v>101145</v>
+        <v>101812</v>
       </c>
       <c r="F128">
-        <v>678</v>
+        <v>764</v>
       </c>
       <c r="G128">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H128">
-        <v>543</v>
+        <v>352</v>
       </c>
       <c r="I128" t="s">
         <v>11</v>
       </c>
       <c r="J128">
-        <v>3889</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="B129">
-        <v>34.5</v>
+        <v>30.75</v>
       </c>
       <c r="C129">
+        <v>33</v>
+      </c>
+      <c r="D129">
+        <v>13</v>
+      </c>
+      <c r="E129">
+        <v>101483</v>
+      </c>
+      <c r="F129">
+        <v>926</v>
+      </c>
+      <c r="G129">
+        <v>215</v>
+      </c>
+      <c r="H129">
+        <v>352</v>
+      </c>
+      <c r="I129" t="s">
+        <v>11</v>
+      </c>
+      <c r="J129">
+        <v>8370</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>69</v>
+      </c>
+      <c r="B130">
+        <v>31.5</v>
+      </c>
+      <c r="C130">
+        <v>34.5</v>
+      </c>
+      <c r="D130">
+        <v>16</v>
+      </c>
+      <c r="E130">
+        <v>102009</v>
+      </c>
+      <c r="F130">
+        <v>435</v>
+      </c>
+      <c r="G130">
+        <v>213</v>
+      </c>
+      <c r="H130">
+        <v>352</v>
+      </c>
+      <c r="I130" t="s">
+        <v>11</v>
+      </c>
+      <c r="J130">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>71</v>
+      </c>
+      <c r="B131">
+        <v>31.5</v>
+      </c>
+      <c r="C131">
         <v>35.25</v>
       </c>
-      <c r="D129">
-        <v>17</v>
-      </c>
-      <c r="E129">
-        <v>101615</v>
-      </c>
-      <c r="F129">
-        <v>883</v>
-      </c>
-      <c r="G129">
-        <v>206</v>
-      </c>
-      <c r="H129">
-        <v>415</v>
-      </c>
-      <c r="I129" t="s">
-        <v>11</v>
-      </c>
-      <c r="J129">
-        <v>6120</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>141</v>
-      </c>
-      <c r="B130">
-        <v>32.25</v>
-      </c>
-      <c r="C130">
-        <v>34.5</v>
-      </c>
-      <c r="D130">
+      <c r="D131">
         <v>9</v>
       </c>
-      <c r="E130">
-        <v>101247</v>
-      </c>
-      <c r="F130">
-        <v>334</v>
-      </c>
-      <c r="G130">
-        <v>282</v>
-      </c>
-      <c r="H130">
-        <v>500</v>
-      </c>
-      <c r="I130" t="s">
-        <v>11</v>
-      </c>
-      <c r="J130">
-        <v>10116</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="E131">
+        <v>102273</v>
+      </c>
+      <c r="F131">
+        <v>357</v>
+      </c>
+      <c r="G131">
         <v>142</v>
-      </c>
-      <c r="B131">
-        <v>32.25</v>
-      </c>
-      <c r="C131">
-        <v>34.5</v>
-      </c>
-      <c r="D131">
-        <v>27</v>
-      </c>
-      <c r="E131">
-        <v>101302</v>
-      </c>
-      <c r="F131">
-        <v>358</v>
-      </c>
-      <c r="G131">
-        <v>327</v>
       </c>
       <c r="H131">
         <v>352</v>
@@ -5127,254 +5136,254 @@
         <v>11</v>
       </c>
       <c r="J131">
-        <v>2357</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5744</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="B132">
+        <v>32.25</v>
+      </c>
+      <c r="C132">
+        <v>34.5</v>
+      </c>
+      <c r="D132">
+        <v>27</v>
+      </c>
+      <c r="E132">
+        <v>101449</v>
+      </c>
+      <c r="F132">
+        <v>318</v>
+      </c>
+      <c r="G132">
+        <v>250</v>
+      </c>
+      <c r="H132">
+        <v>352</v>
+      </c>
+      <c r="I132" t="s">
+        <v>11</v>
+      </c>
+      <c r="J132">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>79</v>
+      </c>
+      <c r="B133">
         <v>31.5</v>
       </c>
-      <c r="C132">
-        <v>34.5</v>
-      </c>
-      <c r="D132">
+      <c r="C133">
+        <v>34.5</v>
+      </c>
+      <c r="D133">
+        <v>19</v>
+      </c>
+      <c r="E133">
+        <v>101349</v>
+      </c>
+      <c r="F133">
+        <v>549</v>
+      </c>
+      <c r="G133">
+        <v>213</v>
+      </c>
+      <c r="H133">
+        <v>352</v>
+      </c>
+      <c r="I133" t="s">
+        <v>11</v>
+      </c>
+      <c r="J133">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>86</v>
+      </c>
+      <c r="B134">
+        <v>31.5</v>
+      </c>
+      <c r="C134">
+        <v>34.5</v>
+      </c>
+      <c r="D134">
         <v>13</v>
       </c>
-      <c r="E132">
-        <v>101633</v>
-      </c>
-      <c r="F132">
-        <v>653</v>
-      </c>
-      <c r="G132">
-        <v>142</v>
-      </c>
-      <c r="H132">
-        <v>415</v>
-      </c>
-      <c r="I132" t="s">
-        <v>11</v>
-      </c>
-      <c r="J132">
-        <v>3789</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>144</v>
-      </c>
-      <c r="B133">
-        <v>32.25</v>
-      </c>
-      <c r="C133">
-        <v>34.5</v>
-      </c>
-      <c r="D133">
-        <v>8</v>
-      </c>
-      <c r="E133">
-        <v>101269</v>
-      </c>
-      <c r="F133">
-        <v>453</v>
-      </c>
-      <c r="G133">
-        <v>141</v>
-      </c>
-      <c r="H133">
-        <v>419</v>
-      </c>
-      <c r="I133" t="s">
-        <v>13</v>
-      </c>
-      <c r="J133">
-        <v>5726</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>145</v>
-      </c>
-      <c r="B134">
-        <v>35.25</v>
-      </c>
-      <c r="C134">
-        <v>35.25</v>
-      </c>
-      <c r="D134">
-        <v>10</v>
-      </c>
       <c r="E134">
-        <v>101342</v>
+        <v>100878</v>
       </c>
       <c r="F134">
-        <v>562</v>
+        <v>641</v>
       </c>
       <c r="G134">
-        <v>322</v>
+        <v>219</v>
       </c>
       <c r="H134">
-        <v>543</v>
+        <v>352</v>
       </c>
       <c r="I134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J134">
-        <v>8628</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="B135">
         <v>31.5</v>
       </c>
       <c r="C135">
-        <v>34.5</v>
+        <v>33.75</v>
       </c>
       <c r="D135">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E135">
-        <v>101332</v>
+        <v>100939</v>
       </c>
       <c r="F135">
-        <v>220</v>
+        <v>632</v>
       </c>
       <c r="G135">
+        <v>284</v>
+      </c>
+      <c r="H135">
+        <v>352</v>
+      </c>
+      <c r="I135" t="s">
+        <v>16</v>
+      </c>
+      <c r="J135">
+        <v>9133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>104</v>
+      </c>
+      <c r="B136">
+        <v>31.5</v>
+      </c>
+      <c r="C136">
+        <v>34.5</v>
+      </c>
+      <c r="D136">
+        <v>10</v>
+      </c>
+      <c r="E136">
+        <v>101486</v>
+      </c>
+      <c r="F136">
+        <v>397</v>
+      </c>
+      <c r="G136">
+        <v>284</v>
+      </c>
+      <c r="H136">
+        <v>352</v>
+      </c>
+      <c r="I136" t="s">
+        <v>11</v>
+      </c>
+      <c r="J136">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>112</v>
+      </c>
+      <c r="B137">
+        <v>31.5</v>
+      </c>
+      <c r="C137">
+        <v>33</v>
+      </c>
+      <c r="D137">
+        <v>10</v>
+      </c>
+      <c r="E137">
+        <v>101529</v>
+      </c>
+      <c r="F137">
+        <v>725</v>
+      </c>
+      <c r="G137">
         <v>213</v>
       </c>
-      <c r="H135">
-        <v>433</v>
-      </c>
-      <c r="I135" t="s">
-        <v>11</v>
-      </c>
-      <c r="J135">
-        <v>4165</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>147</v>
-      </c>
-      <c r="B136">
-        <v>32.25</v>
-      </c>
-      <c r="C136">
-        <v>33</v>
-      </c>
-      <c r="D136">
-        <v>7</v>
-      </c>
-      <c r="E136">
-        <v>100638</v>
-      </c>
-      <c r="F136">
-        <v>966</v>
-      </c>
-      <c r="G136">
-        <v>500</v>
-      </c>
-      <c r="H136">
-        <v>500</v>
-      </c>
-      <c r="I136" t="s">
-        <v>11</v>
-      </c>
-      <c r="J136">
-        <v>7065</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>148</v>
-      </c>
-      <c r="B137">
-        <v>35.25</v>
-      </c>
-      <c r="C137">
-        <v>31.5</v>
-      </c>
-      <c r="D137">
-        <v>16</v>
-      </c>
-      <c r="E137">
-        <v>102183</v>
-      </c>
-      <c r="F137">
-        <v>395</v>
-      </c>
-      <c r="G137">
-        <v>340</v>
-      </c>
       <c r="H137">
-        <v>761</v>
+        <v>352</v>
       </c>
       <c r="I137" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J137">
-        <v>4795</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B138">
         <v>32.25</v>
       </c>
       <c r="C138">
-        <v>35.25</v>
+        <v>34.5</v>
       </c>
       <c r="D138">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E138">
-        <v>101398</v>
+        <v>101042</v>
       </c>
       <c r="F138">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="G138">
         <v>211</v>
       </c>
       <c r="H138">
-        <v>549</v>
+        <v>352</v>
       </c>
       <c r="I138" t="s">
         <v>11</v>
       </c>
       <c r="J138">
-        <v>4049</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="B139">
-        <v>30.75</v>
+        <v>31.5</v>
       </c>
       <c r="C139">
         <v>34.5</v>
       </c>
       <c r="D139">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E139">
-        <v>100977</v>
+        <v>101005</v>
       </c>
       <c r="F139">
-        <v>705</v>
+        <v>733</v>
       </c>
       <c r="G139">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H139">
         <v>352</v>
@@ -5383,44 +5392,44 @@
         <v>11</v>
       </c>
       <c r="J139">
-        <v>3374</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9686</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B140">
-        <v>31.5</v>
+        <v>30.75</v>
       </c>
       <c r="C140">
-        <v>33.75</v>
+        <v>34.5</v>
       </c>
       <c r="D140">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E140">
-        <v>101271</v>
+        <v>101107</v>
       </c>
       <c r="F140">
-        <v>818</v>
+        <v>859</v>
       </c>
       <c r="G140">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="H140">
-        <v>433</v>
+        <v>352</v>
       </c>
       <c r="I140" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J140">
-        <v>3836</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B141">
         <v>31.5</v>
@@ -5429,97 +5438,94 @@
         <v>34.5</v>
       </c>
       <c r="D141">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E141">
-        <v>101807</v>
+        <v>101609</v>
       </c>
       <c r="F141">
-        <v>361</v>
+        <v>602</v>
       </c>
       <c r="G141">
+        <v>213</v>
+      </c>
+      <c r="H141">
+        <v>352</v>
+      </c>
+      <c r="I141" t="s">
+        <v>11</v>
+      </c>
+      <c r="J141">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>142</v>
       </c>
-      <c r="H141">
-        <v>650</v>
-      </c>
-      <c r="I141" t="s">
-        <v>11</v>
-      </c>
-      <c r="J141">
-        <v>5110</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>153</v>
-      </c>
       <c r="B142">
+        <v>32.25</v>
+      </c>
+      <c r="C142">
+        <v>34.5</v>
+      </c>
+      <c r="D142">
+        <v>27</v>
+      </c>
+      <c r="E142">
+        <v>101302</v>
+      </c>
+      <c r="F142">
+        <v>358</v>
+      </c>
+      <c r="G142">
+        <v>327</v>
+      </c>
+      <c r="H142">
+        <v>352</v>
+      </c>
+      <c r="I142" t="s">
+        <v>11</v>
+      </c>
+      <c r="J142">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143">
         <v>30.75</v>
       </c>
-      <c r="C142">
-        <v>32.25</v>
-      </c>
-      <c r="D142">
-        <v>8</v>
-      </c>
-      <c r="E142">
-        <v>101570</v>
-      </c>
-      <c r="F142">
-        <v>412</v>
-      </c>
-      <c r="G142">
-        <v>220</v>
-      </c>
-      <c r="H142">
-        <v>549</v>
-      </c>
-      <c r="I142" t="s">
-        <v>11</v>
-      </c>
-      <c r="J142">
-        <v>7937</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>154</v>
-      </c>
-      <c r="B143">
-        <v>35.25</v>
-      </c>
       <c r="C143">
-        <v>35.25</v>
+        <v>34.5</v>
       </c>
       <c r="D143">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E143">
-        <v>100900</v>
+        <v>100977</v>
       </c>
       <c r="F143">
-        <v>570</v>
+        <v>705</v>
       </c>
       <c r="G143">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="H143">
-        <v>428</v>
+        <v>352</v>
       </c>
       <c r="I143" t="s">
         <v>11</v>
       </c>
       <c r="J143">
-        <v>8810</v>
-      </c>
-      <c r="K143" t="s">
-        <v>155</v>
+        <v>3374</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K143">
-    <sortCondition ref="A2:A143"/>
+    <sortCondition descending="1" ref="H2:H143"/>
   </sortState>
   <conditionalFormatting sqref="L1:L143">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
